--- a/Final Capstone/GUI/build/assets/DB/Department Short Codes.xlsx
+++ b/Final Capstone/GUI/build/assets/DB/Department Short Codes.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\MtechISS\Final Capstone\GUI\build\assets\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787DE743-90EB-4D04-B9E9-1CB4F8C83612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0916AFC6-C806-4252-9EDF-504617C6A465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12540" yWindow="2685" windowWidth="15555" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Department_config" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>Department Short Code</t>
   </si>
@@ -94,6 +93,9 @@
   </si>
   <si>
     <t>[90, 60, 20]</t>
+  </si>
+  <si>
+    <t>[89, 85, 82]</t>
   </si>
 </sst>
 </file>
@@ -168,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -183,7 +185,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,7 +468,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:D8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,7 +489,7 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -545,7 +546,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">

--- a/Final Capstone/GUI/build/assets/DB/Department Short Codes.xlsx
+++ b/Final Capstone/GUI/build/assets/DB/Department Short Codes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\MtechISS\Final Capstone\GUI\build\assets\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0916AFC6-C806-4252-9EDF-504617C6A465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475CE0D7-FF33-4ECC-AD3D-344DF9D42BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Department_config" sheetId="1" r:id="rId1"/>
@@ -468,7 +468,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Final Capstone/GUI/build/assets/DB/Department Short Codes.xlsx
+++ b/Final Capstone/GUI/build/assets/DB/Department Short Codes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\MtechISS\Final Capstone\GUI\build\assets\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475CE0D7-FF33-4ECC-AD3D-344DF9D42BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0AF29F-91CD-49A8-B860-93577BC112A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>Department Short Code</t>
   </si>
@@ -87,12 +87,6 @@
   </si>
   <si>
     <t>[90, 80, 50]</t>
-  </si>
-  <si>
-    <t>ALL</t>
-  </si>
-  <si>
-    <t>[90, 60, 20]</t>
   </si>
   <si>
     <t>[89, 85, 82]</t>
@@ -465,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,7 +540,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -578,23 +572,10 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="4"/>
+      <c r="B8" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>